--- a/forms/contact/health_center-create.xlsx
+++ b/forms/contact/health_center-create.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="227">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -141,7 +141,7 @@
     <t xml:space="preserve">db-object</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/contact/meta/created_by</t>
+    <t xml:space="preserve">/data/inputs/user/contact_id</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">hidden</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/contact/meta/created_by_role</t>
+    <t xml:space="preserve">/data/inputs/contact/role</t>
   </si>
   <si>
     <t xml:space="preserve">username</t>
@@ -180,7 +180,7 @@
     <t xml:space="preserve">Nom du Contact</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/contact/meta/created_by_name</t>
+    <t xml:space="preserve">/data/inputs/contact/name</t>
   </si>
   <si>
     <t xml:space="preserve">external_id</t>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">Code unique de l’utilisateur</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/contact/meta/created_by_external_id</t>
+    <t xml:space="preserve">/data/inputs/contact/external_id</t>
   </si>
   <si>
     <t xml:space="preserve">Primary Contact</t>
@@ -513,25 +513,13 @@
     <t xml:space="preserve">created_by</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/inputs/user/contact_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">created_by_role</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/inputs/contact/role</t>
-  </si>
-  <si>
     <t xml:space="preserve">created_by_external_id</t>
   </si>
   <si>
-    <t xml:space="preserve">/data/inputs/contact/external_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">created_by_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/data/inputs/contact/name</t>
   </si>
   <si>
     <t xml:space="preserve">created_by_place</t>
@@ -721,9 +709,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -942,7 +931,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -954,7 +943,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -970,11 +959,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -982,7 +967,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1007,6 +992,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1074,7 +1063,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1214,10 +1203,10 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L10" activeCellId="0" sqref="L10:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1435,7 +1424,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1459,7 +1448,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1505,28 +1494,28 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+    <row r="14" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="16" t="b">
+      <c r="H14" s="15" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1540,22 +1529,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+    <row r="17" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1634,10 +1623,10 @@
       <c r="B22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E22" s="7"/>
@@ -1732,8 +1721,8 @@
       <c r="M25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
+    <row r="26" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1745,7 +1734,7 @@
       <c r="D26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -1767,20 +1756,20 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
+    <row r="27" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -1801,21 +1790,21 @@
       <c r="O27" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="P27" s="18" t="n">
+      <c r="P27" s="17" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
@@ -1849,134 +1838,134 @@
       <c r="M29" s="7"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
+    <row r="30" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>115</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="P30" s="21" t="s">
+      <c r="P30" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
+    <row r="31" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="22" t="s">
+      <c r="J31" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="N31" s="22" t="s">
+      <c r="N31" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="O31" s="22" t="s">
+      <c r="O31" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
+    <row r="32" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="N32" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O32" s="22" t="s">
+      <c r="O32" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+    <row r="33" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="N33" s="22" t="s">
+      <c r="N33" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="O33" s="22" t="s">
+      <c r="O33" s="21" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2038,7 +2027,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="17" t="s">
         <v>138</v>
       </c>
       <c r="M36" s="7"/>
@@ -2086,59 +2075,59 @@
       <c r="M38" s="7"/>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="s">
+    <row r="39" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="L39" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="N39" s="21" t="s">
+      <c r="N39" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="O39" s="21" t="s">
+      <c r="O39" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="40" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="L40" s="14" t="s">
+      <c r="F40" s="22"/>
+      <c r="L40" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="N40" s="21" t="s">
+      <c r="N40" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="O40" s="21" t="s">
+      <c r="O40" s="20" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2156,26 +2145,26 @@
       <c r="M41" s="7"/>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="s">
+    <row r="42" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J42" s="18" t="s">
+      <c r="J42" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="K42" s="18" t="s">
+      <c r="K42" s="17" t="s">
         <v>156</v>
       </c>
       <c r="N42" s="23" t="s">
@@ -2185,26 +2174,26 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="s">
+    <row r="43" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="K43" s="17" t="s">
         <v>156</v>
       </c>
       <c r="N43" s="23" t="s">
@@ -2214,12 +2203,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" s="18" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>161</v>
       </c>
       <c r="C45" s="7"/>
@@ -2252,7 +2241,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="M46" s="7"/>
       <c r="P46" s="7"/>
@@ -2262,13 +2251,13 @@
         <v>68</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -2276,7 +2265,7 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="M47" s="7"/>
       <c r="P47" s="7"/>
@@ -2286,13 +2275,13 @@
         <v>68</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -2300,7 +2289,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="M48" s="7"/>
       <c r="P48" s="7"/>
@@ -2310,13 +2299,13 @@
         <v>68</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -2324,7 +2313,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="M49" s="7"/>
       <c r="P49" s="7"/>
@@ -2334,13 +2323,13 @@
         <v>68</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
@@ -2348,36 +2337,36 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M50" s="7"/>
       <c r="P50" s="7"/>
     </row>
-    <row r="51" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19" t="s">
+    <row r="51" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="19"/>
-    </row>
-    <row r="52" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
+      <c r="B51" s="18"/>
+    </row>
+    <row r="52" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" s="15" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="B52" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2416,7 +2405,7 @@
         <v>16</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="N56" s="5" t="s">
         <v>61</v>
@@ -2444,7 +2433,7 @@
         <v>53</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2464,7 +2453,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -2476,13 +2465,13 @@
         <v>68</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
@@ -2492,7 +2481,7 @@
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
       <c r="L60" s="28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M60" s="28"/>
       <c r="P60" s="28"/>
@@ -2514,7 +2503,7 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M61" s="7"/>
       <c r="N61" s="8" t="s">
@@ -3531,7 +3520,7 @@
     <row r="1071" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A55 A1 A63:A1048576 A57:A61 A14 A40:A41 A31:A38 A46:A50 A29 A11 A20:A25">
+  <conditionalFormatting sqref="A55 A1 A63:A1048576 A57:A61 A14 A40:A41 A46:A50 A29 A11 A20:A25 A31:A38">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
@@ -3574,7 +3563,7 @@
   <dimension ref="A1:BL1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L10:L11 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3587,13 +3576,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>3</v>
@@ -3601,128 +3590,128 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>193</v>
-      </c>
       <c r="C5" s="33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>196</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
@@ -3770,16 +3759,16 @@
     </row>
     <row r="11" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>211</v>
-      </c>
       <c r="C11" s="37" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
@@ -3827,16 +3816,16 @@
     </row>
     <row r="12" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="V12" s="0"/>
       <c r="W12" s="0"/>
@@ -3884,16 +3873,16 @@
     </row>
     <row r="13" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="V13" s="0"/>
       <c r="W13" s="0"/>
@@ -5030,7 +5019,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+      <selection pane="topLeft" activeCell="F39" activeCellId="1" sqref="L10:L11 F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5046,25 +5035,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="38" t="s">
         <v>221</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>225</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -5088,21 +5077,21 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="40" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/forms/contact/health_center-create.xlsx
+++ b/forms/contact/health_center-create.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="223">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -78,6 +78,9 @@
     <t xml:space="preserve">inputs</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">field-list</t>
   </si>
   <si>
@@ -234,9 +237,6 @@
     <t xml:space="preserve">place_contact</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">concat('yes','')</t>
   </si>
   <si>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">Méthode de date de naissance souhaité</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">approx</t>
@@ -282,7 +282,7 @@
     <t xml:space="preserve">selected(../dob_method,'calendar')</t>
   </si>
   <si>
-    <t xml:space="preserve">.&lt;today()</t>
+    <t xml:space="preserve">. &lt;= today()</t>
   </si>
   <si>
     <t xml:space="preserve">Date must be before today</t>
@@ -439,18 +439,6 @@
   </si>
   <si>
     <t xml:space="preserve">../external_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code_z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align:center;"&gt;&lt;b&gt;Code: &lt;/b&gt; &lt;b style="color:green;"&gt;${code_z}&lt;/b&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">select_one roles</t>
@@ -714,7 +702,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -771,20 +759,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -906,7 +880,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -975,7 +949,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,35 +957,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1019,11 +977,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1043,7 +1001,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1059,7 +1017,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1081,17 +1039,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1204,17 +1152,16 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L10" activeCellId="0" sqref="L10:L11"/>
+      <selection pane="bottomLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="31.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.83"/>
@@ -1286,8 +1233,14 @@
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1295,7 +1248,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -1304,16 +1263,16 @@
     </row>
     <row r="4" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1330,16 +1289,16 @@
     </row>
     <row r="5" s="8" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1356,35 +1315,35 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -1395,75 +1354,75 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="13" t="b">
@@ -1471,62 +1430,62 @@
         <v>1</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" s="13" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="15" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1536,35 +1495,35 @@
         <v>16</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1572,62 +1531,62 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M21" s="7"/>
       <c r="N21" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>70</v>
+      <c r="C22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1642,7 +1601,7 @@
     </row>
     <row r="23" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>1</v>
@@ -1721,8 +1680,8 @@
       <c r="M25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
+    <row r="26" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -1734,7 +1693,7 @@
       <c r="D26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -1749,27 +1708,30 @@
       <c r="K26" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
       <c r="N26" s="8" t="s">
         <v>96</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -1784,32 +1746,41 @@
       <c r="K27" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
       <c r="N27" s="8" t="s">
         <v>103</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="P27" s="17" t="n">
+      <c r="P27" s="7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="7" t="s">
         <v>106</v>
       </c>
+      <c r="M28" s="7"/>
+      <c r="P28" s="7"/>
     </row>
     <row r="29" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
@@ -1838,184 +1809,198 @@
       <c r="M29" s="7"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
+    <row r="30" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="P30" s="20" t="s">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="P30" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="20" t="s">
+    <row r="31" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K31" s="21" t="s">
+      <c r="K31" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="O31" s="21" t="s">
+      <c r="O31" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="32" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="20" t="s">
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K32" s="21" t="s">
+      <c r="K32" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="O32" s="21" t="s">
+      <c r="O32" s="8" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="33" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="20" t="s">
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="K33" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="O33" s="21" t="s">
+      <c r="O33" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="M34" s="11"/>
-      <c r="P34" s="11"/>
-    </row>
-    <row r="35" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11" t="s">
+      <c r="M34" s="7"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="P35" s="11"/>
+      <c r="M35" s="7"/>
+      <c r="P35" s="7"/>
     </row>
     <row r="36" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>137</v>
@@ -2027,7 +2012,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="17" t="s">
+      <c r="L36" s="7" t="s">
         <v>138</v>
       </c>
       <c r="M36" s="7"/>
@@ -2035,205 +2020,241 @@
     </row>
     <row r="37" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M37" s="7"/>
+      <c r="N37" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="P37" s="7"/>
     </row>
     <row r="38" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="L38" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="M38" s="7"/>
+      <c r="N38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="L39" s="22" t="s">
+    <row r="39" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="P39" s="7"/>
+    </row>
+    <row r="40" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="N39" s="20" t="s">
+      <c r="C40" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="O39" s="20" t="s">
+      <c r="D40" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="40" s="20" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="L40" s="22" t="s">
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="I40" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="N40" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="O40" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="J40" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P40" s="7"/>
     </row>
     <row r="41" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="I41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
+      <c r="N41" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="J42" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="N42" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="O42" s="23" t="s">
-        <v>157</v>
-      </c>
+    <row r="42" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="P42" s="7"/>
     </row>
     <row r="43" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B43" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C44" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="N43" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="O43" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="L45" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="M45" s="7"/>
       <c r="P45" s="7"/>
     </row>
     <row r="46" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -2241,23 +2262,23 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M46" s="7"/>
       <c r="P46" s="7"/>
     </row>
     <row r="47" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -2265,23 +2286,23 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M47" s="7"/>
       <c r="P47" s="7"/>
     </row>
     <row r="48" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -2289,159 +2310,167 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="M48" s="7"/>
       <c r="P48" s="7"/>
     </row>
-    <row r="49" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+    <row r="49" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="20"/>
+      <c r="P52" s="20"/>
+    </row>
+    <row r="53" s="21" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="P53" s="20"/>
+    </row>
+    <row r="54" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" s="23" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="7" t="s">
+    </row>
+    <row r="56" s="23" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+    </row>
+    <row r="58" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M49" s="7"/>
-      <c r="P49" s="7"/>
-    </row>
-    <row r="50" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M50" s="7"/>
-      <c r="P50" s="7"/>
-    </row>
-    <row r="51" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="18"/>
-    </row>
-    <row r="52" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L52" s="17" t="s">
+      <c r="D58" s="24" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="53" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="24"/>
-      <c r="P54" s="24"/>
-    </row>
-    <row r="55" s="25" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="P55" s="24"/>
-    </row>
-    <row r="56" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="N56" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L57" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" s="27" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>173</v>
-      </c>
+      <c r="M58" s="24"/>
+      <c r="P58" s="24"/>
     </row>
     <row r="59" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2453,75 +2482,27 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-    </row>
-    <row r="60" s="29" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="M60" s="28"/>
-      <c r="P60" s="28"/>
-    </row>
-    <row r="61" s="8" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="7" t="s">
+      <c r="N59" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M61" s="7"/>
-      <c r="N61" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
+    </row>
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2546,12 +2527,12 @@
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3516,11 +3497,11 @@
     <row r="1067" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1068" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1069" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1070" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1071" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A55 A1 A63:A1048576 A57:A61 A14 A40:A41 A46:A50 A29 A11 A20:A25 A31:A38">
+  <conditionalFormatting sqref="A53 A1 A61:A1048576 A55:A59 A14 A44:A48 A11 A20:A42">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
@@ -3535,13 +3516,8 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 A54:A55">
+  <conditionalFormatting sqref="A5 A52:A53">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"begin group"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3563,7 +3539,7 @@
   <dimension ref="A1:BL1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L10:L11 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3575,143 +3551,143 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="D3" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="32" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B4" s="29" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="C5" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D5" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="34" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
+      <c r="B6" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="34" t="s">
+      <c r="C7" s="29" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
+      <c r="D7" s="30" t="s">
         <v>192</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>198</v>
+        <v>193</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>200</v>
+        <v>195</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>202</v>
+      <c r="D9" s="23" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>206</v>
+        <v>199</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>202</v>
       </c>
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
@@ -3759,16 +3735,16 @@
     </row>
     <row r="11" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>209</v>
+      <c r="C11" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
@@ -3816,16 +3792,16 @@
     </row>
     <row r="12" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>211</v>
+        <v>207</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="V12" s="0"/>
       <c r="W12" s="0"/>
@@ -3873,16 +3849,16 @@
     </row>
     <row r="13" s="7" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>214</v>
+        <v>209</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>210</v>
       </c>
       <c r="V13" s="0"/>
       <c r="W13" s="0"/>
@@ -3932,7 +3908,7 @@
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="34"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -3950,17 +3926,17 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="34"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -3978,17 +3954,17 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -4006,11 +3982,11 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5019,7 +4995,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="1" sqref="L10:L11 F39"/>
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5035,25 +5011,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="34" t="s">
         <v>217</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>221</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -5076,22 +5052,22 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="36" t="s">
         <v>222</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="40" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
